--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>过去是专注提升生产力。</t>
   </si>
@@ -162,9 +162,6 @@
     <t>关注最顶尖的构建过程</t>
   </si>
   <si>
-    <t>做最后一章的动作</t>
-  </si>
-  <si>
     <t>加大吸收黑暗力量的力度，增大自己处理的问题的量！</t>
   </si>
   <si>
@@ -208,13 +205,46 @@
   </si>
   <si>
     <t>JS Matrix</t>
+  </si>
+  <si>
+    <t>设计模式</t>
+  </si>
+  <si>
+    <t>准备D3的材料</t>
+  </si>
+  <si>
+    <t>http://sinonjs.org/docs/</t>
+  </si>
+  <si>
+    <r>
+      <t>jscheckstyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t xml:space="preserve">的用法。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D:\Doc\Dev\javascript-me\first-mocha\README.md</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +284,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
     </font>
   </fonts>
   <fills count="6">
@@ -301,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -312,10 +347,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -597,49 +637,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.125" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="40.375" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
     <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="77.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="G1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>42618</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
+      <c r="D2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G2" s="2">
         <v>42618</v>
@@ -648,34 +688,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="2">
         <v>42619</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -684,12 +724,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>52</v>
+    <row r="6" spans="1:8">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -699,9 +739,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>42620</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -711,12 +754,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>42620</v>
-      </c>
+    <row r="8" spans="1:8" ht="30">
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
@@ -726,9 +766,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>42622</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>24</v>
@@ -740,12 +783,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>42622</v>
+        <v>42625</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="G10" s="2">
         <v>42622</v>
@@ -754,18 +800,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45">
       <c r="A11" s="2">
-        <v>42625</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>42627</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
       </c>
       <c r="G11" s="2">
         <v>42627</v>
@@ -774,131 +817,143 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>42627</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>42633</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>42633</v>
+        <v>42642</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="2">
-        <v>42635</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
+        <v>42668</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>42642</v>
-      </c>
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
+    <row r="16" spans="1:8">
+      <c r="D16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>47</v>
-      </c>
+    <row r="17" spans="4:8">
       <c r="E17" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
+    <row r="18" spans="4:8">
       <c r="G18" s="3"/>
       <c r="H18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="11" t="s">
+    <row r="19" spans="4:8">
+      <c r="D19" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8">
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
       <c r="G20" s="2">
         <v>42642</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8">
       <c r="G21" s="3"/>
       <c r="H21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8">
+      <c r="D22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
       <c r="G22" s="2">
         <v>42668</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8">
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="45">
+      <c r="E25" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -915,9 +970,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>38</v>
       </c>

--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -640,7 +640,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>过去是专注提升生产力。</t>
   </si>
@@ -239,12 +239,27 @@
       <t>D:\Doc\Dev\javascript-me\first-mocha\README.md</t>
     </r>
   </si>
+  <si>
+    <t>Setup Github</t>
+  </si>
+  <si>
+    <t>git config --global user.name "agileabc"</t>
+  </si>
+  <si>
+    <t>ssh-keygen -t rsa -b 4096 -C "agileabc@sina.com"</t>
+  </si>
+  <si>
+    <t>git config --global user.email "agileabc@sina.com"</t>
+  </si>
+  <si>
+    <t>clip &lt; ~/.ssh/id_rsa.pub</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,10 +655,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.125" customWidth="1"/>
@@ -654,7 +669,7 @@
     <col min="8" max="8" width="77.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1">
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>49</v>
       </c>
@@ -668,7 +683,7 @@
       </c>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42618</v>
       </c>
@@ -688,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42619</v>
       </c>
@@ -703,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -715,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -724,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -739,7 +754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42620</v>
       </c>
@@ -754,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -766,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42622</v>
       </c>
@@ -783,7 +798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42625</v>
       </c>
@@ -800,7 +815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45">
+    <row r="11" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42627</v>
       </c>
@@ -817,7 +832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42633</v>
       </c>
@@ -829,7 +844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42642</v>
       </c>
@@ -841,7 +856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42668</v>
       </c>
@@ -859,7 +874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>61</v>
       </c>
@@ -871,7 +886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="10" t="s">
         <v>54</v>
       </c>
@@ -883,7 +898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="4:8">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>56</v>
       </c>
@@ -892,13 +907,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="4:8">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G18" s="3"/>
       <c r="H18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="4:8">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="10" t="s">
         <v>58</v>
       </c>
@@ -910,7 +925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="4:8">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>22</v>
       </c>
@@ -921,13 +936,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="4:8">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G21" s="3"/>
       <c r="H21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="4:8">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="10" t="s">
         <v>57</v>
       </c>
@@ -941,17 +956,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="4:8">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="4:8">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="4:8" ht="45">
+    <row r="25" spans="4:8" ht="45" x14ac:dyDescent="0.25">
       <c r="E25" s="12" t="s">
         <v>63</v>
       </c>
@@ -964,20 +979,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -985,5 +1025,6 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>